--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P01_trail9 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P01_trail9 Features.xlsx
@@ -2420,7 +2420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2431,29 +2431,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="18" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="21" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="21" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
-    <col width="21" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2474,115 +2472,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -2599,72 +2587,66 @@
         <v>3.82961825649118e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>1.428009699819474</v>
+        <v>1.490781539813253e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>1.312531354219836</v>
+        <v>1.862658665846539e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.490781539813253e-06</v>
+        <v>0.03698009387648402</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>1.862658665846539e-06</v>
+        <v>0.145019879014576</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.03698009387648402</v>
+        <v>0.02239805067891078</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.145019879014576</v>
+        <v>1.391907283866023</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.02239805067891078</v>
+        <v>1.284046080375356</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.384488509917424</v>
+        <v>5.726799414922703</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.284046080375356</v>
+        <v>6.452090146825136e-14</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>5.726799414922703</v>
+        <v>46364826.67627899</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>6.452090146825136e-14</v>
+        <v>2.301442294804848e-06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>46364826.67627899</v>
+        <v>138.7003981773174</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>2.301442294804848e-06</v>
+        <v>0.0001724450213884567</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>138.7003981773174</v>
+        <v>9.71512520874527</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001724450213884567</v>
+        <v>1.410671545110231</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>9.71512520874527</v>
+        <v>0.01627599189176622</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.410671545110231</v>
+        <v>3.546148386289027</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01627599189176622</v>
+        <v>0.9012269212572384</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.546148386289027</v>
+        <v>1.14755114301047</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9012269212572384</v>
+        <v>3</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.14755114301047</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>1.235898600158474</v>
       </c>
     </row>
@@ -2679,72 +2661,66 @@
         <v>4.070623608791636e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>1.408720989334513</v>
+        <v>1.493429062043046e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>1.059192548722958</v>
+        <v>1.877070539944593e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.493429062043046e-06</v>
+        <v>0.03583218689628715</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>1.877070539944593e-06</v>
+        <v>0.1359553464309995</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.03583218689628715</v>
+        <v>0.01976781797877162</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.1359553464309995</v>
+        <v>1.374377653590223</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.01976781797877162</v>
+        <v>1.284840582422217</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.365170603701468</v>
+        <v>5.722152288355726</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.284840582422217</v>
+        <v>6.462574263056955e-14</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>5.722152288355726</v>
+        <v>46309301.43680493</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>6.462574263056955e-14</v>
+        <v>2.303613732928744e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>46309301.43680493</v>
+        <v>138.5932268063065</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>2.303613732928744e-06</v>
+        <v>0.0001574119536349561</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>138.5932268063065</v>
+        <v>10.74035307374081</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001574119536349561</v>
+        <v>1.123729095278321</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>10.74035307374081</v>
+        <v>0.0181582848987534</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.123729095278321</v>
+        <v>3.317562770308247</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.0181582848987534</v>
+        <v>0.8950011719358366</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.317562770308247</v>
+        <v>1.162907919454316</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.8950011719358366</v>
+        <v>3</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.162907919454316</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>1.052566861733694</v>
       </c>
     </row>
@@ -2759,72 +2735,66 @@
         <v>4.294037517396634e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>1.363750046037568</v>
+        <v>1.493429062043046e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>0.7604762957484614</v>
+        <v>1.891773858901262e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.493429062043046e-06</v>
+        <v>0.03450712825949567</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>1.891773858901262e-06</v>
+        <v>0.128664875713722</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.03450712825949567</v>
+        <v>0.01774550255244648</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.128664875713722</v>
+        <v>1.357636233298701</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.01774550255244648</v>
+        <v>1.278967187109585</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.346990446462874</v>
+        <v>5.790779689127421</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.278967187109585</v>
+        <v>6.310304051541135e-14</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>5.790779689127421</v>
+        <v>47437925.26636083</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>6.310304051541135e-14</v>
+        <v>2.24840786594111e-06</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>47437925.26636083</v>
+        <v>142.0043533950886</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>2.24840786594111e-06</v>
+        <v>0.0001639670164131555</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>142.0043533950886</v>
+        <v>11.33081981523775</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001639670164131555</v>
+        <v>1.075831078278754</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>11.33081981523775</v>
+        <v>0.02105131166088307</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.075831078278754</v>
+        <v>2.899498977538116</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.02105131166088307</v>
+        <v>0.8867623610094365</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.899498977538116</v>
+        <v>1.269839449585042</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.8867623610094365</v>
+        <v>4</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.269839449585042</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.6602302944011424</v>
       </c>
     </row>
@@ -2839,72 +2809,66 @@
         <v>4.505131060489082e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>1.307717724956467</v>
+        <v>1.509443466574461e-06</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>0.4669056494158603</v>
+        <v>1.906755184402481e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1.509443466574461e-06</v>
+        <v>0.03368437072359069</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>1.906755184402481e-06</v>
+        <v>0.1225370002749282</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.03368437072359069</v>
+        <v>0.01614982998325563</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1225370002749282</v>
+        <v>1.351890417409807</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.01614982998325563</v>
+        <v>1.276011118258483</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.340813085745515</v>
+        <v>5.806510327141259</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.276011118258483</v>
+        <v>6.276159396054171e-14</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>5.806510327141259</v>
+        <v>47707074.67900822</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>6.276159396054171e-14</v>
+        <v>2.235444931923573e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>47707074.67900822</v>
+        <v>142.8431895934941</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>2.235444931923573e-06</v>
+        <v>0.0001575961020825722</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>142.8431895934941</v>
+        <v>10.51419469008197</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001575961020825722</v>
+        <v>1.115450820909148</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>10.51419469008197</v>
+        <v>0.01742197959289127</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.115450820909148</v>
+        <v>2.87588258805619</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.01742197959289127</v>
+        <v>0.8848509378415541</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.87588258805619</v>
+        <v>1.213659025195041</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.8848509378415541</v>
+        <v>4</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.213659025195041</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.3408526603782953</v>
       </c>
     </row>
@@ -2919,72 +2883,66 @@
         <v>4.711937168284838e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>1.249654616474903</v>
+        <v>1.540788350169944e-06</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>0.2019047818979862</v>
+        <v>1.922161779698566e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>1.540788350169944e-06</v>
+        <v>0.03322390064592123</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>1.922161779698566e-06</v>
+        <v>0.1171865403032523</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.03322390064592123</v>
+        <v>0.01483638243562279</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1171865403032523</v>
+        <v>1.335924753960033</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.01483638243562279</v>
+        <v>1.280201914406464</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.321724643913694</v>
+        <v>6.092628946612439</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.280201914406464</v>
+        <v>5.700525745014318e-14</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>6.092628946612439</v>
+        <v>52539045.30432993</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>5.700525745014318e-14</v>
+        <v>2.029522787413432e-06</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>52539045.30432993</v>
+        <v>157.3545354541948</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>2.029522787413432e-06</v>
+        <v>0.0001560596838342599</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>157.3545354541948</v>
+        <v>9.13722570219892</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001560596838342599</v>
+        <v>1.337523504761531</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>9.13722570219892</v>
+        <v>0.01302925032842039</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.337523504761531</v>
+        <v>2.905299214671332</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.01302925032842039</v>
+        <v>0.8733841700285258</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.905299214671332</v>
+        <v>1.215225725387032</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.8733841700285258</v>
+        <v>5</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.215225725387032</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.1771293572182888</v>
       </c>
     </row>
@@ -2999,72 +2957,66 @@
         <v>4.915736140531538e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>1.190538449651652</v>
+        <v>1.56339500086717e-06</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-0.03713061520372873</v>
+        <v>1.938093988757688e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>1.56339500086717e-06</v>
+        <v>0.03294833468293432</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>1.938093988757688e-06</v>
+        <v>0.1121390436349601</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.03294833468293432</v>
+        <v>0.01366077958971453</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1121390436349601</v>
+        <v>1.338171416374488</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.01366077958971453</v>
+        <v>1.268665330700156</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.321953429946892</v>
+        <v>6.633195761811633</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.268665330700156</v>
+        <v>4.809265366133723e-14</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>6.633195761811633</v>
+        <v>62288943.06116676</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>4.809265366133723e-14</v>
+        <v>1.711841997120353e-06</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>62288943.06116676</v>
+        <v>186.5952846206013</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>1.711841997120353e-06</v>
+        <v>0.0001471733485928482</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>186.5952846206013</v>
+        <v>8.223676509937714</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001471733485928482</v>
+        <v>1.278649714092041</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>8.223676509937714</v>
+        <v>0.009953165101904042</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.278649714092041</v>
+        <v>2.8739518449039</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.009953165101904042</v>
+        <v>0.8716062464807465</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.8739518449039</v>
+        <v>1.290481604771539</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.8716062464807465</v>
+        <v>5</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.290481604771539</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.1627069482769948</v>
       </c>
     </row>
@@ -3441,7 +3393,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.619252451288458</v>
+        <v>1.651510214040336</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.473811895356009</v>
@@ -3530,7 +3482,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.631839880061904</v>
+        <v>1.660746647051596</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.53856688324194</v>
@@ -3619,7 +3571,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.654212477493463</v>
+        <v>1.685041307145354</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.521298042038372</v>
@@ -3708,7 +3660,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.587584293091858</v>
+        <v>1.615918777516213</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.457370867705199</v>
@@ -3797,7 +3749,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.581941146303169</v>
+        <v>1.612384296658267</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.47460252845245</v>
@@ -3886,7 +3838,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.624552431250836</v>
+        <v>1.650809911442252</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.538104303554494</v>
@@ -3975,7 +3927,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.671814476197645</v>
+        <v>1.686564488468405</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.680312863253489</v>
@@ -4064,7 +4016,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.67088626346433</v>
+        <v>1.688356075869515</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.699915085158268</v>
@@ -4153,7 +4105,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.631186859475679</v>
+        <v>1.648980739810208</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.579141107922909</v>
@@ -4242,7 +4194,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.568654779184532</v>
+        <v>1.585768750305484</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.300903904163929</v>
@@ -4331,7 +4283,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.537129295723211</v>
+        <v>1.559337026113156</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.317230589855564</v>
@@ -4420,7 +4372,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.510961642996716</v>
+        <v>1.536506227328196</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.35692308745065</v>
@@ -4509,7 +4461,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.479568493055309</v>
+        <v>1.507533762594822</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.302401020347842</v>
@@ -4598,7 +4550,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.481710347121585</v>
+        <v>1.510559502876226</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.341554965158165</v>
@@ -4687,7 +4639,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.482142473905343</v>
+        <v>1.504367520606134</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.180738235659143</v>
@@ -4776,7 +4728,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.491303080508008</v>
+        <v>1.516092104678001</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.28119457557051</v>
@@ -4865,7 +4817,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.473217838922271</v>
+        <v>1.497340036012246</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.310017062215376</v>
@@ -4954,7 +4906,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.468568219675502</v>
+        <v>1.491611664945218</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.242742219934327</v>
@@ -5043,7 +4995,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.509348320224301</v>
+        <v>1.536607787874461</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.303419563720849</v>
@@ -5132,7 +5084,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.505448488927603</v>
+        <v>1.532880696400768</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.249054583445877</v>
@@ -5221,7 +5173,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.493308473467897</v>
+        <v>1.518991848314088</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.214919025944033</v>
@@ -5310,7 +5262,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.489200102075194</v>
+        <v>1.515289727660451</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.239974381833119</v>
@@ -5399,7 +5351,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.486743933046223</v>
+        <v>1.505119690609111</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.068420208938475</v>
@@ -5488,7 +5440,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.467649993371626</v>
+        <v>1.486416771253815</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.310959922559181</v>
@@ -5577,7 +5529,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.512628964237169</v>
+        <v>1.532996910955763</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.514968919501832</v>
@@ -5666,7 +5618,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.552323498349357</v>
+        <v>1.568242357163015</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.42412010759124</v>
@@ -5755,7 +5707,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.594674238259714</v>
+        <v>1.602607421340656</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.18282070722356</v>
@@ -5844,7 +5796,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.617953573747023</v>
+        <v>1.622930241538481</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.44911774007263</v>
@@ -5933,7 +5885,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.612316305064869</v>
+        <v>1.615917293970958</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.375813225359523</v>
@@ -6022,7 +5974,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.625396461603922</v>
+        <v>1.633514902580222</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.519572067310898</v>
@@ -6111,7 +6063,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.629682124054542</v>
+        <v>1.638875706225771</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.586071807133453</v>
@@ -6200,7 +6152,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.669006221749904</v>
+        <v>1.671461764825175</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.638917541457835</v>
@@ -6289,7 +6241,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.67987238970736</v>
+        <v>1.681440404933103</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.665248724208083</v>
@@ -6378,7 +6330,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.690644094017916</v>
+        <v>1.688261468107025</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.708830985700878</v>
@@ -6467,7 +6419,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.686803903496383</v>
+        <v>1.685186936364264</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.666264422577694</v>
@@ -6556,7 +6508,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.657735952728658</v>
+        <v>1.686135989839798</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.205535022216693</v>
@@ -6645,7 +6597,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.64118952584554</v>
+        <v>1.675062571713752</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.195630344523047</v>
@@ -6734,7 +6686,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.6546578104653</v>
+        <v>1.68798553078612</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.278877724092497</v>
@@ -6823,7 +6775,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.684976923307458</v>
+        <v>1.71801030971795</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.286165949658274</v>
@@ -6912,7 +6864,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.690320819908671</v>
+        <v>1.733128307377054</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.365408598257757</v>
@@ -7001,7 +6953,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.708182091228211</v>
+        <v>1.75382486368523</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.428211150660445</v>
@@ -7090,7 +7042,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.725194725916295</v>
+        <v>1.772903303493974</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.482767709949298</v>
@@ -7179,7 +7131,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.763106641461333</v>
+        <v>1.80764236936477</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.593926779140522</v>
@@ -7268,7 +7220,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.784084923528757</v>
+        <v>1.829607147047719</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.590612367702316</v>
@@ -7357,7 +7309,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.803228549289484</v>
+        <v>1.849568622585066</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.724345204309597</v>
@@ -7446,7 +7398,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.813770818487451</v>
+        <v>1.860336873407434</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.727616294717564</v>
@@ -7535,7 +7487,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.81261243799973</v>
+        <v>1.860959671489772</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.764418594647573</v>
@@ -7624,7 +7576,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.818928163884306</v>
+        <v>1.867615667376986</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.790007106878626</v>
@@ -7713,7 +7665,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.829006809302674</v>
+        <v>1.87906341843661</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.848781206334444</v>
@@ -7802,7 +7754,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.857175590049225</v>
+        <v>1.901267585863964</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.687672878187392</v>
@@ -7891,7 +7843,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.86314362282179</v>
+        <v>1.899686534204146</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.963620320934727</v>
@@ -8177,7 +8129,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.564571137417402</v>
+        <v>1.534658528242909</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.726790968169787</v>
@@ -8266,7 +8218,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.558080662114265</v>
+        <v>1.536549673756356</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.770824363507099</v>
@@ -8355,7 +8307,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.541966625393271</v>
+        <v>1.520875556596417</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.757973456306506</v>
@@ -8444,7 +8396,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.516247703506769</v>
+        <v>1.495392806255239</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.711685263499555</v>
@@ -8533,7 +8485,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.494369525581888</v>
+        <v>1.473873027624584</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.734517128934217</v>
@@ -8622,7 +8574,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.498387706810675</v>
+        <v>1.480377998644814</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.538313626347688</v>
@@ -8711,7 +8663,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.494762138830283</v>
+        <v>1.477658238771279</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.646064579757701</v>
@@ -8800,7 +8752,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.494130893894192</v>
+        <v>1.483506807025661</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.595861961766097</v>
@@ -8889,7 +8841,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.502440872753031</v>
+        <v>1.491217419052459</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.687399378633112</v>
@@ -8978,7 +8930,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.40836640764869</v>
+        <v>1.406563241088856</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.810556796869636</v>
@@ -9067,7 +9019,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.37014074547723</v>
+        <v>1.371970357579268</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.870544304233426</v>
@@ -9156,7 +9108,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.347082537952007</v>
+        <v>1.346218420555493</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.884491065501674</v>
@@ -9245,7 +9197,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.328368791060068</v>
+        <v>1.325925497481527</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.887317241514245</v>
@@ -9334,7 +9286,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.33167244275529</v>
+        <v>1.327114812564938</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.908563900903643</v>
@@ -9423,7 +9375,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.338207373061087</v>
+        <v>1.333559883370459</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.91008096639297</v>
@@ -9512,7 +9464,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.33568617621883</v>
+        <v>1.336482845561981</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.897830494558387</v>
@@ -9601,7 +9553,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.331302185803183</v>
+        <v>1.33183179834136</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.892089625104581</v>
@@ -9690,7 +9642,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.326638069468474</v>
+        <v>1.323856057829155</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.924435626286852</v>
@@ -9779,7 +9731,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.334405130934414</v>
+        <v>1.32856567511854</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.932116779517023</v>
@@ -9868,7 +9820,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.337832164203598</v>
+        <v>1.333284146657712</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.894416257805642</v>
@@ -9957,7 +9909,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.339940847264449</v>
+        <v>1.33015225786895</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.811497414263233</v>
@@ -10046,7 +9998,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.334044531503042</v>
+        <v>1.319604026128999</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.898373129812529</v>
@@ -10135,7 +10087,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.333724640794191</v>
+        <v>1.313759046678415</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.910479351393205</v>
@@ -10224,7 +10176,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.324520043326073</v>
+        <v>1.295660071949368</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.944056618918841</v>
@@ -10313,7 +10265,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.380226925486628</v>
+        <v>1.341319753858671</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.095347435629601</v>
@@ -10402,7 +10354,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.411406204300824</v>
+        <v>1.367511581156406</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.976374564072951</v>
@@ -10491,7 +10443,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.443529159019357</v>
+        <v>1.398510129768799</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.905884904461798</v>
@@ -10580,7 +10532,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.481530960052203</v>
+        <v>1.433905555150503</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.609641241900797</v>
@@ -10669,7 +10621,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.487120503642406</v>
+        <v>1.440699829474486</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.685674522860713</v>
@@ -10758,7 +10710,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.485632412419298</v>
+        <v>1.434446537294056</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.793419823199829</v>
@@ -10847,7 +10799,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.488150763792974</v>
+        <v>1.435338899960219</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.727609455448499</v>
@@ -10936,7 +10888,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.522373120001826</v>
+        <v>1.462999209951075</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.553540785252959</v>
@@ -11025,7 +10977,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.535929470164058</v>
+        <v>1.476997186750649</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.67002182587858</v>
@@ -11114,7 +11066,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.534720388829335</v>
+        <v>1.479197499803924</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.720722783996345</v>
@@ -11203,7 +11155,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.532110338716878</v>
+        <v>1.475599916825459</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.604517820758727</v>
@@ -11292,7 +11244,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.508559426992114</v>
+        <v>1.461014559648842</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.474213135170095</v>
@@ -11381,7 +11333,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.501784423023266</v>
+        <v>1.464856804817444</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.469706716129033</v>
@@ -11470,7 +11422,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.480448804497013</v>
+        <v>1.45444375974594</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.322239267294391</v>
@@ -11559,7 +11511,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.476026851000393</v>
+        <v>1.462242479222657</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.530600916496416</v>
@@ -11648,7 +11600,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.487334364979538</v>
+        <v>1.471753565116428</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.442012373226624</v>
@@ -11737,7 +11689,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.504677812588199</v>
+        <v>1.490478847363578</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.387660091885615</v>
@@ -11826,7 +11778,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.521031724459259</v>
+        <v>1.504287016587736</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.51244188580565</v>
@@ -11915,7 +11867,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.560566993185216</v>
+        <v>1.547060737260238</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.598112680425916</v>
@@ -12004,7 +11956,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.565395049881932</v>
+        <v>1.554193472933277</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.546540909726248</v>
@@ -12093,7 +12045,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.570353069421471</v>
+        <v>1.56655999503274</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.659020456710706</v>
@@ -12182,7 +12134,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.580989035250618</v>
+        <v>1.57871904670527</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.438633177858565</v>
@@ -12271,7 +12223,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.580380981802583</v>
+        <v>1.580154933144232</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.702690449850799</v>
@@ -12360,7 +12312,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.581266742434152</v>
+        <v>1.582773193024201</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.742893900399574</v>
@@ -12449,7 +12401,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.589136893794627</v>
+        <v>1.592800927063311</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.719297092996774</v>
@@ -12538,7 +12490,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.585150963413333</v>
+        <v>1.591702404089501</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.203059032306293</v>
@@ -12627,7 +12579,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.464136449870207</v>
+        <v>1.484970799366047</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.819192621138293</v>
@@ -12913,7 +12865,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.748899987231553</v>
+        <v>1.715539853854881</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>4.237197160165628</v>
@@ -13002,7 +12954,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.746603799916507</v>
+        <v>1.716088492133723</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>4.081311628950035</v>
@@ -13091,7 +13043,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.755925525378293</v>
+        <v>1.720618388917006</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.708742219557494</v>
@@ -13180,7 +13132,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.718312095726405</v>
+        <v>1.693288091936634</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.647696817041715</v>
@@ -13269,7 +13221,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.716019407578262</v>
+        <v>1.693643177963932</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.753908848312724</v>
@@ -13358,7 +13310,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.706938270479282</v>
+        <v>1.691532946037458</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.779287053920391</v>
@@ -13447,7 +13399,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.712037035413774</v>
+        <v>1.692648193197643</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.973861919575151</v>
@@ -13536,7 +13488,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.71576452178042</v>
+        <v>1.698896130183753</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.856794493414822</v>
@@ -13625,7 +13577,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.716212226357401</v>
+        <v>1.692484963772247</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.805766671342033</v>
@@ -13714,7 +13666,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.637988243605478</v>
+        <v>1.62594000638128</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.203485651295915</v>
@@ -13803,7 +13755,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.621835210247844</v>
+        <v>1.603538388662892</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.221433938622106</v>
@@ -13892,7 +13844,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.620675416699425</v>
+        <v>1.60560559620668</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.268526943279735</v>
@@ -13981,7 +13933,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.622445815631011</v>
+        <v>1.597820150023201</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.273340874445019</v>
@@ -14070,7 +14022,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.612561255011236</v>
+        <v>1.584872692711534</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.27112339813739</v>
@@ -14159,7 +14111,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.612070400092939</v>
+        <v>1.580846901035506</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.248179623718529</v>
@@ -14248,7 +14200,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.609089193213115</v>
+        <v>1.577835962453018</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.212160494729062</v>
@@ -14337,7 +14289,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.601526191059497</v>
+        <v>1.571991942523573</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.247566096831491</v>
@@ -14426,7 +14378,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.602302976032421</v>
+        <v>1.572106796646352</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.195986081271133</v>
@@ -14515,7 +14467,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.611137491723453</v>
+        <v>1.574933007929879</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.222047895574624</v>
@@ -14604,7 +14556,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.615228658864789</v>
+        <v>1.577940216128256</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.226450084055654</v>
@@ -14693,7 +14645,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.614035106059859</v>
+        <v>1.573351759886231</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.198669006780152</v>
@@ -14782,7 +14734,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.608713479828668</v>
+        <v>1.564653337904153</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.177147542937005</v>
@@ -14871,7 +14823,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.608514111910948</v>
+        <v>1.556787812516287</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.224234666948982</v>
@@ -14960,7 +14912,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.59149752220657</v>
+        <v>1.538563200911288</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.219973402610814</v>
@@ -15049,7 +15001,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.666842586793499</v>
+        <v>1.595081627061741</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.72885009619451</v>
@@ -15138,7 +15090,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.683229935164019</v>
+        <v>1.610334806926704</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.205535571091212</v>
@@ -15227,7 +15179,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.677695315433453</v>
+        <v>1.596213806681954</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.26984218918839</v>
@@ -15316,7 +15268,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.67571711060932</v>
+        <v>1.588005718456633</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.075216262260746</v>
@@ -15405,7 +15357,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.686523215048148</v>
+        <v>1.593591295780854</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.264021981764003</v>
@@ -15494,7 +15446,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.679726310042675</v>
+        <v>1.588285928015394</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.019163506217108</v>
@@ -15583,7 +15535,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.67983340955881</v>
+        <v>1.588450270197808</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.105401845136916</v>
@@ -15672,7 +15624,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.693404167659465</v>
+        <v>1.591897033924936</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.183024521442077</v>
@@ -15761,7 +15713,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.690592375933261</v>
+        <v>1.584237944442054</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.232895842534593</v>
@@ -15850,7 +15802,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.699694727702632</v>
+        <v>1.592786754450113</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.417894871467645</v>
@@ -15939,7 +15891,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.70030873299576</v>
+        <v>1.590682461021878</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.387767987454961</v>
@@ -16028,7 +15980,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.699154833199932</v>
+        <v>1.611603373961571</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.06640046792236</v>
@@ -16117,7 +16069,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.702489380321677</v>
+        <v>1.611612335019876</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.233865734901</v>
@@ -16206,7 +16158,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.686715381892433</v>
+        <v>1.613384746091802</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.934304431027082</v>
@@ -16295,7 +16247,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.701294722834125</v>
+        <v>1.631846871112296</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.286251091106047</v>
@@ -16384,7 +16336,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.718241783290065</v>
+        <v>1.657858045208817</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.123081551790049</v>
@@ -16473,7 +16425,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.72979705166256</v>
+        <v>1.677215921329607</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.130146660083573</v>
@@ -16562,7 +16514,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.739527589595239</v>
+        <v>1.695417968995182</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.467539564938392</v>
@@ -16651,7 +16603,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.756456114712492</v>
+        <v>1.726294665293133</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.265933051531341</v>
@@ -16740,7 +16692,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.76760361289462</v>
+        <v>1.741542618650446</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.23627113060557</v>
@@ -16829,7 +16781,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.782716181661997</v>
+        <v>1.761987203643591</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.422223190752862</v>
@@ -16918,7 +16870,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.793538579940471</v>
+        <v>1.768160804991869</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.763473003008602</v>
@@ -17007,7 +16959,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.794285509259153</v>
+        <v>1.7749478079431</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.850516018590167</v>
@@ -17096,7 +17048,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.80418353762861</v>
+        <v>1.787336140389509</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.705430841851104</v>
@@ -17185,7 +17137,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.814025926811163</v>
+        <v>1.80326707090242</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.77925792289149</v>
@@ -17274,7 +17226,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.816246326153636</v>
+        <v>1.810618495413907</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.401799158127337</v>
@@ -17363,7 +17315,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.791043386478941</v>
+        <v>1.788328670206752</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.849174171101976</v>
@@ -17649,7 +17601,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.806064546804182</v>
+        <v>1.775604574671933</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>4.104884072510043</v>
@@ -17738,7 +17690,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.811593059454831</v>
+        <v>1.784868381045104</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.476660963968633</v>
@@ -17827,7 +17779,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.814957926972302</v>
+        <v>1.794034067003577</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.984465926327755</v>
@@ -17916,7 +17868,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.770724235215301</v>
+        <v>1.756618172381078</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.811952249190897</v>
@@ -18005,7 +17957,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.765072005434089</v>
+        <v>1.757252260039075</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.873927215219924</v>
@@ -18094,7 +18046,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.765561331992597</v>
+        <v>1.758721611832227</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.03684596855875</v>
@@ -18183,7 +18135,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.768522895707028</v>
+        <v>1.765302175431167</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.935232327404935</v>
@@ -18272,7 +18224,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.773325934225153</v>
+        <v>1.768069374758487</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.84103312584141</v>
@@ -18361,7 +18313,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.772812090922867</v>
+        <v>1.773100862281515</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.869830013218404</v>
@@ -18450,7 +18402,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.715188348068266</v>
+        <v>1.723568070453279</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.364260495791942</v>
@@ -18539,7 +18491,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.697172978118242</v>
+        <v>1.716627632197229</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.495524077790849</v>
@@ -18628,7 +18580,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.706452399257649</v>
+        <v>1.728665304415851</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.458427289617465</v>
@@ -18717,7 +18669,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.70591240144196</v>
+        <v>1.728059509001421</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.504533879505629</v>
@@ -18806,7 +18758,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.707185103364992</v>
+        <v>1.728023848571034</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.513315048812952</v>
@@ -18895,7 +18847,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.704307630093545</v>
+        <v>1.722868845433975</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.469352341596071</v>
@@ -18984,7 +18936,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.70754730422957</v>
+        <v>1.727577998509809</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.512471803825966</v>
@@ -19073,7 +19025,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.711354026867861</v>
+        <v>1.729776983285571</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.511563368743501</v>
@@ -19162,7 +19114,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.709049646407289</v>
+        <v>1.721166801862409</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.525596619989198</v>
@@ -19251,7 +19203,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.739899934901017</v>
+        <v>1.745504182558466</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.536816731246986</v>
@@ -19340,7 +19292,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.744844523423583</v>
+        <v>1.749743883810485</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.57429161781692</v>
@@ -19429,7 +19381,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.741454931863244</v>
+        <v>1.738908319741964</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.603608360598419</v>
@@ -19518,7 +19470,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.741806098447791</v>
+        <v>1.732456606787656</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.586176467895839</v>
@@ -19607,7 +19559,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.739351640270856</v>
+        <v>1.726450716437921</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.39790860282585</v>
@@ -19696,7 +19648,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.720977252269416</v>
+        <v>1.708931677991486</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.465352368225478</v>
@@ -19785,7 +19737,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.781176420957145</v>
+        <v>1.753727734301461</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.202018731239194</v>
@@ -19874,7 +19826,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.799112565719833</v>
+        <v>1.759270646956959</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.635196579470956</v>
@@ -19963,7 +19915,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.787117610730183</v>
+        <v>1.741618291870664</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.630563559213542</v>
@@ -20052,7 +20004,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.785717999964247</v>
+        <v>1.734569897357535</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.35545858706252</v>
@@ -20141,7 +20093,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.786411507727248</v>
+        <v>1.735890002036562</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.38871009326025</v>
@@ -20230,7 +20182,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.78236236485374</v>
+        <v>1.724687854302613</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.661003228176136</v>
@@ -20319,7 +20271,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.776971373527266</v>
+        <v>1.721533630004483</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.626003846090926</v>
@@ -20408,7 +20360,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.777929216629878</v>
+        <v>1.721904099756481</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.418159120664433</v>
@@ -20497,7 +20449,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.776595223322822</v>
+        <v>1.719588933853932</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.498595525827485</v>
@@ -20586,7 +20538,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.769846246297657</v>
+        <v>1.713769872566718</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.544595093768544</v>
@@ -20675,7 +20627,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.766010650140066</v>
+        <v>1.700496659134575</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.732042658959681</v>
@@ -20764,7 +20716,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.76978432127586</v>
+        <v>1.724535978081191</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.35956125270474</v>
@@ -20853,7 +20805,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.761173447283397</v>
+        <v>1.715549511441163</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.434488454968269</v>
@@ -20942,7 +20894,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.757097535294276</v>
+        <v>1.713430345599363</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.349522643690257</v>
@@ -21031,7 +20983,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.781719239284779</v>
+        <v>1.732945422824985</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.474032805757427</v>
@@ -21120,7 +21072,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.794861257979453</v>
+        <v>1.754588207010287</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.481630382167746</v>
@@ -21209,7 +21161,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.804930434157992</v>
+        <v>1.771745987256715</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.333736681778</v>
@@ -21298,7 +21250,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.819433738968821</v>
+        <v>1.788080424585119</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.478788187033393</v>
@@ -21387,7 +21339,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.833895156797798</v>
+        <v>1.806194301109816</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.578762273110014</v>
@@ -21476,7 +21428,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.84406549202559</v>
+        <v>1.815911593495737</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.873005267070537</v>
@@ -21565,7 +21517,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.861206834331472</v>
+        <v>1.83941688326455</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.880699698876741</v>
@@ -21654,7 +21606,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.873424170939043</v>
+        <v>1.851106400391647</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.959867639960832</v>
@@ -21743,7 +21695,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.876336245701514</v>
+        <v>1.857352267715123</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>4.168598555467839</v>
@@ -21832,7 +21784,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.880951898938301</v>
+        <v>1.86506511577771</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.672897239672481</v>
@@ -21921,7 +21873,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.894928572100882</v>
+        <v>1.885786304303394</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.859229293227787</v>
@@ -22010,7 +21962,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.906596720757644</v>
+        <v>1.898788275131109</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.625811384144905</v>
@@ -22099,7 +22051,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.881804622933548</v>
+        <v>1.873537247847351</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.351871992387774</v>
@@ -22385,7 +22337,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.615633153662147</v>
+        <v>1.612031475759072</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.183326290563322</v>
@@ -22474,7 +22426,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.621253146008616</v>
+        <v>1.616813706315035</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.83262778060444</v>
@@ -22563,7 +22515,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.612180523968672</v>
+        <v>1.602890108549273</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.024384738080435</v>
@@ -22652,7 +22604,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.550250059736676</v>
+        <v>1.539801072331997</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.53617913753629</v>
@@ -22741,7 +22693,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.532135066700099</v>
+        <v>1.520783140579107</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.396052429593618</v>
@@ -22830,7 +22782,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.524753986855911</v>
+        <v>1.517178216796122</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.33709778905124</v>
@@ -22919,7 +22871,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.531016170477753</v>
+        <v>1.521484957087558</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.335065322799919</v>
@@ -23008,7 +22960,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.534597926413627</v>
+        <v>1.525817503308735</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.429671613268652</v>
@@ -23097,7 +23049,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.529240120426737</v>
+        <v>1.516704898071093</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.451446548372709</v>
@@ -23186,7 +23138,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.305109370417821</v>
+        <v>1.300279089503718</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.450776594634505</v>
@@ -23275,7 +23227,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.267289736110412</v>
+        <v>1.256952048746608</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.477316347632576</v>
@@ -23364,7 +23316,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.249022487307523</v>
+        <v>1.235627361533493</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.506966013296125</v>
@@ -23453,7 +23405,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.235576980290495</v>
+        <v>1.221082214103203</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.528490023043834</v>
@@ -23542,7 +23494,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.240998704489767</v>
+        <v>1.225720377113937</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.522790316464645</v>
@@ -23631,7 +23583,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.238888215283798</v>
+        <v>1.222731321954247</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.525251909533264</v>
@@ -23720,7 +23672,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.236798087550925</v>
+        <v>1.220963145672285</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.526429983479533</v>
@@ -23809,7 +23761,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.2330270129678</v>
+        <v>1.218357883072008</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.528952552797987</v>
@@ -23898,7 +23850,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.227680325983031</v>
+        <v>1.212336153263631</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.529634422051583</v>
@@ -23987,7 +23939,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.234209835153654</v>
+        <v>1.220254115105989</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.520163521026938</v>
@@ -24076,7 +24028,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.237041267327964</v>
+        <v>1.223544491008575</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.517320587739508</v>
@@ -24165,7 +24117,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.24191457904646</v>
+        <v>1.226153813086929</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.52563698648522</v>
@@ -24254,7 +24206,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.239985402529355</v>
+        <v>1.223579632118128</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.520149305803713</v>
@@ -24343,7 +24295,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.24032308011218</v>
+        <v>1.223832712109239</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.521087085790562</v>
@@ -24432,7 +24384,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.235610873987584</v>
+        <v>1.216749766506319</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.540237902752867</v>
@@ -24521,7 +24473,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.323003132321541</v>
+        <v>1.3025745776176</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.762880857790784</v>
@@ -24610,7 +24562,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.371897306146441</v>
+        <v>1.354659655392892</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.70855600502519</v>
@@ -24699,7 +24651,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.424593776383984</v>
+        <v>1.406057828969033</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.675511960919176</v>
@@ -24788,7 +24740,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.483089344208139</v>
+        <v>1.463187483002299</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.876425821733806</v>
@@ -24877,7 +24829,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.470679605854062</v>
+        <v>1.4514091414198</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.918452645339368</v>
@@ -24966,7 +24918,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.471464180227058</v>
+        <v>1.453511555226736</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.873630016185508</v>
@@ -25055,7 +25007,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.473596198012684</v>
+        <v>1.456469618037178</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.9076485786985</v>
@@ -25144,7 +25096,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.500370178982105</v>
+        <v>1.476906403394521</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.863537700638164</v>
@@ -25233,7 +25185,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.51313740493331</v>
+        <v>1.49174272118813</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.89312036713807</v>
@@ -25322,7 +25274,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.51049927773207</v>
+        <v>1.488206342789657</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.858529792134987</v>
@@ -25411,7 +25363,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.487382471850226</v>
+        <v>1.467059988904929</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.878016487872579</v>
@@ -25500,7 +25452,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.416994367466225</v>
+        <v>1.416567875109245</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.921837227991968</v>
@@ -25589,7 +25541,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.421919379432969</v>
+        <v>1.427397122207735</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.925048135290029</v>
@@ -25678,7 +25630,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.397531686669102</v>
+        <v>1.406218174048141</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.973173970778628</v>
@@ -25767,7 +25719,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.422863165188369</v>
+        <v>1.436466231834382</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.960984272335844</v>
@@ -25856,7 +25808,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.439434142859651</v>
+        <v>1.454581917802607</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.00044152613135</v>
@@ -25945,7 +25897,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.455464733881239</v>
+        <v>1.474774661878036</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.005870236181935</v>
@@ -26034,7 +25986,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.468687310591859</v>
+        <v>1.490711416454781</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.983629580071129</v>
@@ -26123,7 +26075,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.481944900198154</v>
+        <v>1.507673102612327</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.027001958721499</v>
@@ -26212,7 +26164,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.489991818111455</v>
+        <v>1.51566812182806</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.01361400474696</v>
@@ -26301,7 +26253,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.499139573969531</v>
+        <v>1.524784118649024</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.042229221223322</v>
@@ -26390,7 +26342,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.505275742633553</v>
+        <v>1.535280022283746</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.03733373339206</v>
@@ -26479,7 +26431,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.504739669948704</v>
+        <v>1.536631727550166</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.066419182054239</v>
@@ -26568,7 +26520,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.507350211779678</v>
+        <v>1.5387662027259</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.059860397442623</v>
@@ -26657,7 +26609,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.51732522049294</v>
+        <v>1.552952119927472</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.060392267485439</v>
@@ -26746,7 +26698,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.541884227092426</v>
+        <v>1.573449641652965</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.192063072557861</v>
@@ -26835,7 +26787,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.614568192843892</v>
+        <v>1.64035036469967</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.510250748471894</v>
@@ -27121,7 +27073,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.693538581022981</v>
+        <v>1.735706733184631</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.716168497212257</v>
@@ -27210,7 +27162,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.711753746464524</v>
+        <v>1.755254365674765</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.859975208348985</v>
@@ -27299,7 +27251,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.736258554273408</v>
+        <v>1.778032344651367</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.791200148394501</v>
@@ -27388,7 +27340,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.670427093610793</v>
+        <v>1.699364817127102</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.62956072684117</v>
@@ -27477,7 +27429,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.655137657671115</v>
+        <v>1.69459234704608</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.544372236250885</v>
@@ -27566,7 +27518,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.689116510277653</v>
+        <v>1.724739431924436</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.638422311863541</v>
@@ -27655,7 +27607,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.721020734718088</v>
+        <v>1.750481314128161</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.53364139226283</v>
@@ -27744,7 +27696,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.72185152191057</v>
+        <v>1.755327979714373</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.540086322418523</v>
@@ -27833,7 +27785,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.68282048393153</v>
+        <v>1.723354458958167</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.647506366618674</v>
@@ -27922,7 +27874,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.539388222503835</v>
+        <v>1.583629445265128</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.955398802938146</v>
@@ -28011,7 +27963,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.456168453936128</v>
+        <v>1.496920050805684</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.932326940469816</v>
@@ -28100,7 +28052,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.442768807147029</v>
+        <v>1.481891453177444</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.029801380681822</v>
@@ -28189,7 +28141,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.428416140456906</v>
+        <v>1.463738234065556</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.061242059836393</v>
@@ -28278,7 +28230,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.427207464113223</v>
+        <v>1.46360230145997</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.061466006269502</v>
@@ -28367,7 +28319,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.427435004688359</v>
+        <v>1.460599787567302</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.020850101107752</v>
@@ -28456,7 +28408,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.433531888338971</v>
+        <v>1.469627329265697</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.041231087795625</v>
@@ -28545,7 +28497,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.428891719746864</v>
+        <v>1.46513109061153</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.060288750607566</v>
@@ -28634,7 +28586,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.425923282661419</v>
+        <v>1.46107483794335</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.030797651379944</v>
@@ -28723,7 +28675,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.450879439494</v>
+        <v>1.491759316601152</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.966399332031613</v>
@@ -28812,7 +28764,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.45005164772464</v>
+        <v>1.488766892743652</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.020916452547125</v>
@@ -28901,7 +28853,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.447345397085024</v>
+        <v>1.485619414094502</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.028276144588133</v>
@@ -28990,7 +28942,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.44573879782075</v>
+        <v>1.485493870083902</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.005615368733085</v>
@@ -29079,7 +29031,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.448515030120557</v>
+        <v>1.485018863556065</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.983852955979778</v>
@@ -29168,7 +29120,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.438183177873591</v>
+        <v>1.470787898386405</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.997890758490024</v>
@@ -29257,7 +29209,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.529675691071893</v>
+        <v>1.561651158782622</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.05011408181866</v>
@@ -29346,7 +29298,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.630146508809536</v>
+        <v>1.661878781105006</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.229006360736239</v>
@@ -29435,7 +29387,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.681757090630939</v>
+        <v>1.708789436215358</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.283183311933525</v>
@@ -29524,7 +29476,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.729696153696609</v>
+        <v>1.760151351164992</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.297868178854551</v>
@@ -29613,7 +29565,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.726971853817969</v>
+        <v>1.754974009122119</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.343583363749147</v>
@@ -29702,7 +29654,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.734583468325642</v>
+        <v>1.761172631255385</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.316826413103031</v>
@@ -29791,7 +29743,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.731261104309992</v>
+        <v>1.757455791507691</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.365139805299819</v>
@@ -29880,7 +29832,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.749131235359615</v>
+        <v>1.771305293439178</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.371157624144322</v>
@@ -29969,7 +29921,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.754327735433081</v>
+        <v>1.779047437720473</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.27267167948668</v>
@@ -30058,7 +30010,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.75615047965334</v>
+        <v>1.78055769448497</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.296906356965497</v>
@@ -30147,7 +30099,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.75129770812358</v>
+        <v>1.773727532981663</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.36322272937141</v>
@@ -30236,7 +30188,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.710972020381296</v>
+        <v>1.738491272712259</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.378037052718827</v>
@@ -30325,7 +30277,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.696876019000176</v>
+        <v>1.727207493431949</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.410240775012523</v>
@@ -30414,7 +30366,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.696079703755643</v>
+        <v>1.723931643392239</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.520580151287525</v>
@@ -30503,7 +30455,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.769346174471895</v>
+        <v>1.791606961360587</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.773871073621158</v>
@@ -30592,7 +30544,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.760036580927056</v>
+        <v>1.783648046637414</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.97124165245011</v>
@@ -30681,7 +30633,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.749676128592631</v>
+        <v>1.785577010967988</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.941395822327476</v>
@@ -30770,7 +30722,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.74995715926082</v>
+        <v>1.78523942332113</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.100917974045124</v>
@@ -30859,7 +30811,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.774404448088071</v>
+        <v>1.804016847448778</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.05795644075087</v>
@@ -30948,7 +30900,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.777932081545241</v>
+        <v>1.813458203340497</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.073697667662006</v>
@@ -31037,7 +30989,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.785635248693596</v>
+        <v>1.822013555153922</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.181276255372558</v>
@@ -31126,7 +31078,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.791481069963422</v>
+        <v>1.828242030639659</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.261418421325704</v>
@@ -31215,7 +31167,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.793977115478541</v>
+        <v>1.831765513908266</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.317228134564471</v>
@@ -31304,7 +31256,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.798117773909019</v>
+        <v>1.834468339566379</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.058103036368239</v>
@@ -31393,7 +31345,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.810701862518455</v>
+        <v>1.847426667901209</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.404605191511758</v>
@@ -31482,7 +31434,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.811137891286528</v>
+        <v>1.847185923295899</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.86862276313142</v>
@@ -31571,7 +31523,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.842047906122147</v>
+        <v>1.869146633717517</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.889990168322672</v>
